--- a/タグ付け表.xlsx
+++ b/タグ付け表.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatak\OneDrive\デスクトップ\line_webhook_app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AA724E75-D2E6-462F-B6EC-E909A3650B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AACE8967-F908-4E92-8959-B42C94110F33}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="タグ付け表.xlsx" sheetId="1" r:id="rId4"/>
+    <sheet name="タグ付け表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="C2BNUT2CuFFwlMeLMeSsbTQrNFzbbvNCZRhFAzTMH38="/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -36,149 +40,866 @@
     <t>住所</t>
   </si>
   <si>
+    <t>株式会社新鮮本舗</t>
+  </si>
+  <si>
+    <t>119-5544</t>
+  </si>
+  <si>
+    <t>福岡県新宿区新田5丁目29-63</t>
+  </si>
+  <si>
+    <t>株式会社みどり流通</t>
+  </si>
+  <si>
+    <t>681-1790</t>
+  </si>
+  <si>
+    <t>愛知県東区桜町4丁目13-4</t>
+  </si>
+  <si>
     <t>キュウリ</t>
-  </si>
-  <si>
-    <t>株式会社新鮮本舗</t>
-  </si>
-  <si>
-    <t>119-5544</t>
-  </si>
-  <si>
-    <t>福岡県新宿区新田5丁目29-63</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>トマト</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>株式会社青果市場</t>
+    <rPh sb="4" eb="6">
+      <t>セイカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シジョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>636-0822</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>奈良県生駒郡三郷町立野南2丁目23-30</t>
+    <rPh sb="0" eb="6">
+      <t>ナラケンイコマグン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>サンゴウチョウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>タツノミナミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウメ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>2L</t>
-  </si>
-  <si>
-    <t>株式会社青果市場</t>
-  </si>
-  <si>
-    <t>636-0822</t>
-  </si>
-  <si>
-    <t>奈良県生駒郡三郷町立野南2丁目23-30</t>
-  </si>
-  <si>
-    <t>株式会社みどり流通</t>
-  </si>
-  <si>
-    <t>681-1790</t>
-  </si>
-  <si>
-    <t>愛知県東区桜町4丁目13-4</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="游ゴシック Light"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -319,96 +1040,390 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F97E0E4-39C1-489C-ABE7-CCBF61215D18}">
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
         <v>0.08</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C100" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>